--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_9_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_9_genetic_schedule.xlsx
@@ -520,226 +520,232 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>ACH 424 - Advanced Chemistry
+3D
+Room 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
           <t>DP 438 - Photography Techniques
 3E
 Room 238</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>BL 304 - Business Law
 2C
 Room 154</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>AE 410 - Advanced Electronics
+3B
+Room 74</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>CAD 318 - Computer-Aided Design
 2B
 Room 32</t>
         </is>
       </c>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="E16" s="2" t="n"/>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>DR 210 - Drama
+2E
+Room 175</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>ACH 424 - Advanced Chemistry
 3D
 Room 219</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>AE 410 - Advanced Electronics
-3B
-Room 74</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>ACH 424 - Advanced Chemistry
-3D
-Room 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>DR 210 - Drama
-2E
-Room 174</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>DR 210 - Drama
-2E
-Room 175</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n"/>
+    </row>
+    <row r="25" ht="50" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>7:30 PM - 8:00 PM</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>DP 438 - Photography Techniques
 3E
@@ -747,28 +753,13 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n"/>
-    </row>
-    <row r="25" ht="50" customHeight="1">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>7:30 PM - 8:00 PM</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n"/>
-    </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
+      <c r="B26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -778,17 +769,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_9_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_9_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +115,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +572,36 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>ACH 424 - Advanced Chemistry
-3D
-Room 9</t>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>A2 ITE 211 - Data Structures and Algorithm
+2A
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 211 - Data Structures and Algorithm
+2A
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 211 - Data Structures and Algorithm
+2A
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>A1 ITE 211 - Data Structures and Algorithm
+2A
+Room 304
+Emp: 9</t>
         </is>
       </c>
     </row>
@@ -532,7 +611,10 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,7 +622,10 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="4" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -548,7 +633,31 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>B2 ITE 211 - Data Structures and Algorithm
+2B
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>A2 ITE 211 - Data Structures and Algorithm
+2A
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 211 - Data Structures and Algorithm
+2B
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -556,11 +665,15 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>DP 438 - Photography Techniques
-3E
-Room 238</t>
+      <c r="B6" s="5" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>A2 ITE 211 - Data Structures and Algorithm
+2A
+Room 303
+Emp: 9</t>
         </is>
       </c>
     </row>
@@ -570,7 +683,10 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="3" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -578,7 +694,7 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
+      <c r="F8" s="3" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -586,7 +702,7 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
+      <c r="F9" s="3" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -608,11 +724,28 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>BL 304 - Business Law
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>C1 ITE 211 - Data Structures and Algorithm
 2C
-Room 154</t>
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 211 - Data Structures and Algorithm
+2B
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>B2 ITE 211 - Data Structures and Algorithm
+2B
+Room 310
+Emp: 9</t>
         </is>
       </c>
     </row>
@@ -622,7 +755,9 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="F13" s="5" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -630,7 +765,9 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n"/>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="F14" s="5" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -638,11 +775,20 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>AE 410 - Advanced Electronics
-3B
-Room 74</t>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>C2 ITE 211 - Data Structures and Algorithm
+2C
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>C1 ITE 211 - Data Structures and Algorithm
+2C
+Room 208
+Emp: 9</t>
         </is>
       </c>
     </row>
@@ -652,14 +798,16 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>CAD 318 - Computer-Aided Design
-2B
-Room 32</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>C2 ITE 211 - Data Structures and Algorithm
+2C
+Room 208
+Emp: 9</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -667,8 +815,9 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="E17" s="8" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -676,8 +825,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
+      <c r="E18" s="8" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -685,8 +833,6 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -701,11 +847,28 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>DR 210 - Drama
-2E
-Room 175</t>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 211 - Data Structures and Algorithm
+2B
+Room 304
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>B2 ITE 211 - Data Structures and Algorithm
+2B
+Room 305
+Emp: 9</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>C1 ITE 211 - Data Structures and Algorithm
+2C
+Room 303
+Emp: 9</t>
         </is>
       </c>
     </row>
@@ -715,7 +878,9 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="F22" s="7" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -723,13 +888,9 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>ACH 424 - Advanced Chemistry
-3D
-Room 219</t>
-        </is>
-      </c>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="5" t="n"/>
+      <c r="F23" s="7" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -737,7 +898,9 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="F24" s="7" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -745,13 +908,6 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>DP 438 - Photography Techniques
-3E
-Room 239</t>
-        </is>
-      </c>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -759,7 +915,6 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -769,16 +924,24 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B2:B5"/>
+  <mergeCells count="17">
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
